--- a/aprendeR/post1/Iris.xlsx
+++ b/aprendeR/post1/Iris.xlsx
@@ -1,7 +1,31 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando ospino\Documents\GitHub\website_quarto\aprendeR\post1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{899A453D-A6DA-4D5A-A37E-373B82BE9A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="Fisher_Iris_data" localSheetId="0">Data!$A$1:$E$151</definedName>
+  </definedNames>
+  <calcPr calcId="92512"/>
+  <fileRecoveryPr repairLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Fisher Iris data" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Fisher Iris data" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr sourceFile="E:\Fisher Iris data.txt" decimal=",">
       <textFields count="6">
         <textField/>
@@ -49,33 +73,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -83,33 +96,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,10 +117,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Fisher Iris data" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,4 +497,3039 @@
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>1.4</v>
+      </c>
+      <c r="D2">
+        <v>3.5</v>
+      </c>
+      <c r="E2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>1.4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>1.3</v>
+      </c>
+      <c r="D4">
+        <v>3.2</v>
+      </c>
+      <c r="E4">
+        <v>4.7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+      <c r="D5">
+        <v>3.1</v>
+      </c>
+      <c r="E5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>1.4</v>
+      </c>
+      <c r="D6">
+        <v>3.6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7">
+        <v>1.7</v>
+      </c>
+      <c r="D7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
+        <v>5.4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+      <c r="D8">
+        <v>3.4</v>
+      </c>
+      <c r="E8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>1.5</v>
+      </c>
+      <c r="D9">
+        <v>3.4</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>1.4</v>
+      </c>
+      <c r="D10">
+        <v>2.9</v>
+      </c>
+      <c r="E10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11">
+        <v>3.1</v>
+      </c>
+      <c r="E11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+      <c r="D12">
+        <v>3.7</v>
+      </c>
+      <c r="E12">
+        <v>5.4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
+        <v>1.6</v>
+      </c>
+      <c r="D13">
+        <v>3.4</v>
+      </c>
+      <c r="E13">
+        <v>4.8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14">
+        <v>1.4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4.8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4.3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16">
+        <v>1.2</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>5.8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.4</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E17">
+        <v>5.7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.4</v>
+      </c>
+      <c r="C18">
+        <v>1.3</v>
+      </c>
+      <c r="D18">
+        <v>3.9</v>
+      </c>
+      <c r="E18">
+        <v>5.4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+      <c r="C19">
+        <v>1.4</v>
+      </c>
+      <c r="D19">
+        <v>3.5</v>
+      </c>
+      <c r="E19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20">
+        <v>1.7</v>
+      </c>
+      <c r="D20">
+        <v>3.8</v>
+      </c>
+      <c r="E20">
+        <v>5.7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.3</v>
+      </c>
+      <c r="C21">
+        <v>1.5</v>
+      </c>
+      <c r="D21">
+        <v>3.8</v>
+      </c>
+      <c r="E21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22">
+        <v>1.7</v>
+      </c>
+      <c r="D22">
+        <v>3.4</v>
+      </c>
+      <c r="E22">
+        <v>5.4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0.4</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+      <c r="D23">
+        <v>3.7</v>
+      </c>
+      <c r="E23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3.6</v>
+      </c>
+      <c r="E24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <v>1.7</v>
+      </c>
+      <c r="D25">
+        <v>3.3</v>
+      </c>
+      <c r="E25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>1.9</v>
+      </c>
+      <c r="D26">
+        <v>3.4</v>
+      </c>
+      <c r="E26">
+        <v>4.8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.2</v>
+      </c>
+      <c r="C27">
+        <v>1.6</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0.4</v>
+      </c>
+      <c r="C28">
+        <v>1.6</v>
+      </c>
+      <c r="D28">
+        <v>3.4</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0.2</v>
+      </c>
+      <c r="C29">
+        <v>1.5</v>
+      </c>
+      <c r="D29">
+        <v>3.5</v>
+      </c>
+      <c r="E29">
+        <v>5.2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0.2</v>
+      </c>
+      <c r="C30">
+        <v>1.4</v>
+      </c>
+      <c r="D30">
+        <v>3.4</v>
+      </c>
+      <c r="E30">
+        <v>5.2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0.2</v>
+      </c>
+      <c r="C31">
+        <v>1.6</v>
+      </c>
+      <c r="D31">
+        <v>3.2</v>
+      </c>
+      <c r="E31">
+        <v>4.7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0.2</v>
+      </c>
+      <c r="C32">
+        <v>1.6</v>
+      </c>
+      <c r="D32">
+        <v>3.1</v>
+      </c>
+      <c r="E32">
+        <v>4.8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0.4</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33">
+        <v>3.4</v>
+      </c>
+      <c r="E33">
+        <v>5.4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E34">
+        <v>5.2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0.2</v>
+      </c>
+      <c r="C35">
+        <v>1.4</v>
+      </c>
+      <c r="D35">
+        <v>4.2</v>
+      </c>
+      <c r="E35">
+        <v>5.5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0.2</v>
+      </c>
+      <c r="C36">
+        <v>1.5</v>
+      </c>
+      <c r="D36">
+        <v>3.1</v>
+      </c>
+      <c r="E36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0.2</v>
+      </c>
+      <c r="C37">
+        <v>1.2</v>
+      </c>
+      <c r="D37">
+        <v>3.2</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0.2</v>
+      </c>
+      <c r="C38">
+        <v>1.3</v>
+      </c>
+      <c r="D38">
+        <v>3.5</v>
+      </c>
+      <c r="E38">
+        <v>5.5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0.1</v>
+      </c>
+      <c r="C39">
+        <v>1.4</v>
+      </c>
+      <c r="D39">
+        <v>3.6</v>
+      </c>
+      <c r="E39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0.2</v>
+      </c>
+      <c r="C40">
+        <v>1.3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0.2</v>
+      </c>
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+      <c r="D41">
+        <v>3.4</v>
+      </c>
+      <c r="E41">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0.3</v>
+      </c>
+      <c r="C42">
+        <v>1.3</v>
+      </c>
+      <c r="D42">
+        <v>3.5</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0.3</v>
+      </c>
+      <c r="C43">
+        <v>1.3</v>
+      </c>
+      <c r="D43">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E43">
+        <v>4.5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0.2</v>
+      </c>
+      <c r="C44">
+        <v>1.3</v>
+      </c>
+      <c r="D44">
+        <v>3.2</v>
+      </c>
+      <c r="E44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0.6</v>
+      </c>
+      <c r="C45">
+        <v>1.6</v>
+      </c>
+      <c r="D45">
+        <v>3.5</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0.4</v>
+      </c>
+      <c r="C46">
+        <v>1.9</v>
+      </c>
+      <c r="D46">
+        <v>3.8</v>
+      </c>
+      <c r="E46">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0.3</v>
+      </c>
+      <c r="C47">
+        <v>1.4</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>4.8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0.2</v>
+      </c>
+      <c r="C48">
+        <v>1.6</v>
+      </c>
+      <c r="D48">
+        <v>3.8</v>
+      </c>
+      <c r="E48">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0.2</v>
+      </c>
+      <c r="C49">
+        <v>1.4</v>
+      </c>
+      <c r="D49">
+        <v>3.2</v>
+      </c>
+      <c r="E49">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0.2</v>
+      </c>
+      <c r="C50">
+        <v>1.5</v>
+      </c>
+      <c r="D50">
+        <v>3.7</v>
+      </c>
+      <c r="E50">
+        <v>5.3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>0.2</v>
+      </c>
+      <c r="C51">
+        <v>1.4</v>
+      </c>
+      <c r="D51">
+        <v>3.3</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>1.4</v>
+      </c>
+      <c r="C52">
+        <v>4.7</v>
+      </c>
+      <c r="D52">
+        <v>3.2</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>1.5</v>
+      </c>
+      <c r="C53">
+        <v>4.5</v>
+      </c>
+      <c r="D53">
+        <v>3.2</v>
+      </c>
+      <c r="E53">
+        <v>6.4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>1.5</v>
+      </c>
+      <c r="C54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D54">
+        <v>3.1</v>
+      </c>
+      <c r="E54">
+        <v>6.9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>1.3</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E55">
+        <v>5.5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>1.5</v>
+      </c>
+      <c r="C56">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D56">
+        <v>2.8</v>
+      </c>
+      <c r="E56">
+        <v>6.5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>1.3</v>
+      </c>
+      <c r="C57">
+        <v>4.5</v>
+      </c>
+      <c r="D57">
+        <v>2.8</v>
+      </c>
+      <c r="E57">
+        <v>5.7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>1.6</v>
+      </c>
+      <c r="C58">
+        <v>4.7</v>
+      </c>
+      <c r="D58">
+        <v>3.3</v>
+      </c>
+      <c r="E58">
+        <v>6.3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>3.3</v>
+      </c>
+      <c r="D59">
+        <v>2.4</v>
+      </c>
+      <c r="E59">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>1.3</v>
+      </c>
+      <c r="C60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D60">
+        <v>2.9</v>
+      </c>
+      <c r="E60">
+        <v>6.6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>1.4</v>
+      </c>
+      <c r="C61">
+        <v>3.9</v>
+      </c>
+      <c r="D61">
+        <v>2.7</v>
+      </c>
+      <c r="E61">
+        <v>5.2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>3.5</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>1.5</v>
+      </c>
+      <c r="C63">
+        <v>4.2</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>5.9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>1.4</v>
+      </c>
+      <c r="C65">
+        <v>4.7</v>
+      </c>
+      <c r="D65">
+        <v>2.9</v>
+      </c>
+      <c r="E65">
+        <v>6.1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>1.3</v>
+      </c>
+      <c r="C66">
+        <v>3.6</v>
+      </c>
+      <c r="D66">
+        <v>2.9</v>
+      </c>
+      <c r="E66">
+        <v>5.6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>1.4</v>
+      </c>
+      <c r="C67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D67">
+        <v>3.1</v>
+      </c>
+      <c r="E67">
+        <v>6.7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>1.5</v>
+      </c>
+      <c r="C68">
+        <v>4.5</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>5.6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D69">
+        <v>2.7</v>
+      </c>
+      <c r="E69">
+        <v>5.8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>1.5</v>
+      </c>
+      <c r="C70">
+        <v>4.5</v>
+      </c>
+      <c r="D70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E70">
+        <v>6.2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C71">
+        <v>3.9</v>
+      </c>
+      <c r="D71">
+        <v>2.5</v>
+      </c>
+      <c r="E71">
+        <v>5.6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>1.8</v>
+      </c>
+      <c r="C72">
+        <v>4.8</v>
+      </c>
+      <c r="D72">
+        <v>3.2</v>
+      </c>
+      <c r="E72">
+        <v>5.9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>1.3</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>2.8</v>
+      </c>
+      <c r="E73">
+        <v>6.1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>1.5</v>
+      </c>
+      <c r="C74">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D74">
+        <v>2.5</v>
+      </c>
+      <c r="E74">
+        <v>6.3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>1.2</v>
+      </c>
+      <c r="C75">
+        <v>4.7</v>
+      </c>
+      <c r="D75">
+        <v>2.8</v>
+      </c>
+      <c r="E75">
+        <v>6.1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>1.3</v>
+      </c>
+      <c r="C76">
+        <v>4.3</v>
+      </c>
+      <c r="D76">
+        <v>2.9</v>
+      </c>
+      <c r="E76">
+        <v>6.4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>1.4</v>
+      </c>
+      <c r="C77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>6.6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>1.4</v>
+      </c>
+      <c r="C78">
+        <v>4.8</v>
+      </c>
+      <c r="D78">
+        <v>2.8</v>
+      </c>
+      <c r="E78">
+        <v>6.8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>1.7</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>6.7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>1.5</v>
+      </c>
+      <c r="C80">
+        <v>4.5</v>
+      </c>
+      <c r="D80">
+        <v>2.9</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>3.5</v>
+      </c>
+      <c r="D81">
+        <v>2.6</v>
+      </c>
+      <c r="E81">
+        <v>5.7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C82">
+        <v>3.8</v>
+      </c>
+      <c r="D82">
+        <v>2.4</v>
+      </c>
+      <c r="E82">
+        <v>5.5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>3.7</v>
+      </c>
+      <c r="D83">
+        <v>2.4</v>
+      </c>
+      <c r="E83">
+        <v>5.5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>1.2</v>
+      </c>
+      <c r="C84">
+        <v>3.9</v>
+      </c>
+      <c r="D84">
+        <v>2.7</v>
+      </c>
+      <c r="E84">
+        <v>5.8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>1.6</v>
+      </c>
+      <c r="C85">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D85">
+        <v>2.7</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>1.5</v>
+      </c>
+      <c r="C86">
+        <v>4.5</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>5.4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>1.6</v>
+      </c>
+      <c r="C87">
+        <v>4.5</v>
+      </c>
+      <c r="D87">
+        <v>3.4</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>1.5</v>
+      </c>
+      <c r="C88">
+        <v>4.7</v>
+      </c>
+      <c r="D88">
+        <v>3.1</v>
+      </c>
+      <c r="E88">
+        <v>6.7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>1.3</v>
+      </c>
+      <c r="C89">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D89">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E89">
+        <v>6.3</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>1.3</v>
+      </c>
+      <c r="C90">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>5.6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>1.3</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>2.5</v>
+      </c>
+      <c r="E91">
+        <v>5.5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>1.2</v>
+      </c>
+      <c r="C92">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D92">
+        <v>2.6</v>
+      </c>
+      <c r="E92">
+        <v>5.5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>1.4</v>
+      </c>
+      <c r="C93">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>6.1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>1.2</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>2.6</v>
+      </c>
+      <c r="E94">
+        <v>5.8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>3.3</v>
+      </c>
+      <c r="D95">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>1.3</v>
+      </c>
+      <c r="C96">
+        <v>4.2</v>
+      </c>
+      <c r="D96">
+        <v>2.7</v>
+      </c>
+      <c r="E96">
+        <v>5.6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>1.2</v>
+      </c>
+      <c r="C97">
+        <v>4.2</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>5.7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>1.3</v>
+      </c>
+      <c r="C98">
+        <v>4.2</v>
+      </c>
+      <c r="D98">
+        <v>2.9</v>
+      </c>
+      <c r="E98">
+        <v>5.7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>1.3</v>
+      </c>
+      <c r="C99">
+        <v>4.3</v>
+      </c>
+      <c r="D99">
+        <v>2.9</v>
+      </c>
+      <c r="E99">
+        <v>6.2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>2.5</v>
+      </c>
+      <c r="E100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>1.3</v>
+      </c>
+      <c r="C101">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D101">
+        <v>2.8</v>
+      </c>
+      <c r="E101">
+        <v>5.7</v>
+      </c>
+      <c r="F101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>2.5</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>3.3</v>
+      </c>
+      <c r="E102">
+        <v>6.3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>1.9</v>
+      </c>
+      <c r="C103">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D103">
+        <v>2.7</v>
+      </c>
+      <c r="E103">
+        <v>5.8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>2.1</v>
+      </c>
+      <c r="C104">
+        <v>5.9</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>7.1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>1.8</v>
+      </c>
+      <c r="C105">
+        <v>5.6</v>
+      </c>
+      <c r="D105">
+        <v>2.9</v>
+      </c>
+      <c r="E105">
+        <v>6.3</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C106">
+        <v>5.8</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>6.5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>2.1</v>
+      </c>
+      <c r="C107">
+        <v>6.6</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>7.6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>1.7</v>
+      </c>
+      <c r="C108">
+        <v>4.5</v>
+      </c>
+      <c r="D108">
+        <v>2.5</v>
+      </c>
+      <c r="E108">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>1.8</v>
+      </c>
+      <c r="C109">
+        <v>6.3</v>
+      </c>
+      <c r="D109">
+        <v>2.9</v>
+      </c>
+      <c r="E109">
+        <v>7.3</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>1.8</v>
+      </c>
+      <c r="C110">
+        <v>5.8</v>
+      </c>
+      <c r="D110">
+        <v>2.5</v>
+      </c>
+      <c r="E110">
+        <v>6.7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>2.5</v>
+      </c>
+      <c r="C111">
+        <v>6.1</v>
+      </c>
+      <c r="D111">
+        <v>3.6</v>
+      </c>
+      <c r="E111">
+        <v>7.2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D112">
+        <v>3.2</v>
+      </c>
+      <c r="E112">
+        <v>6.5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>1.9</v>
+      </c>
+      <c r="C113">
+        <v>5.3</v>
+      </c>
+      <c r="D113">
+        <v>2.7</v>
+      </c>
+      <c r="E113">
+        <v>6.4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>2.1</v>
+      </c>
+      <c r="C114">
+        <v>5.5</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>6.8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>2.5</v>
+      </c>
+      <c r="E115">
+        <v>5.7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>2.4</v>
+      </c>
+      <c r="C116">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D116">
+        <v>2.8</v>
+      </c>
+      <c r="E116">
+        <v>5.8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C117">
+        <v>5.3</v>
+      </c>
+      <c r="D117">
+        <v>3.2</v>
+      </c>
+      <c r="E117">
+        <v>6.4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>1.8</v>
+      </c>
+      <c r="C118">
+        <v>5.5</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118">
+        <v>6.5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C119">
+        <v>6.7</v>
+      </c>
+      <c r="D119">
+        <v>3.8</v>
+      </c>
+      <c r="E119">
+        <v>7.7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C120">
+        <v>6.9</v>
+      </c>
+      <c r="D120">
+        <v>2.6</v>
+      </c>
+      <c r="E120">
+        <v>7.7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>1.5</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E121">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C122">
+        <v>5.7</v>
+      </c>
+      <c r="D122">
+        <v>3.2</v>
+      </c>
+      <c r="E122">
+        <v>6.9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D123">
+        <v>2.8</v>
+      </c>
+      <c r="E123">
+        <v>5.6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>6.7</v>
+      </c>
+      <c r="D124">
+        <v>2.8</v>
+      </c>
+      <c r="E124">
+        <v>7.7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>1.8</v>
+      </c>
+      <c r="C125">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D125">
+        <v>2.7</v>
+      </c>
+      <c r="E125">
+        <v>6.3</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>2.1</v>
+      </c>
+      <c r="C126">
+        <v>5.7</v>
+      </c>
+      <c r="D126">
+        <v>3.3</v>
+      </c>
+      <c r="E126">
+        <v>6.7</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>1.8</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>3.2</v>
+      </c>
+      <c r="E127">
+        <v>7.2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>1.8</v>
+      </c>
+      <c r="C128">
+        <v>4.8</v>
+      </c>
+      <c r="D128">
+        <v>2.8</v>
+      </c>
+      <c r="E128">
+        <v>6.2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>1.8</v>
+      </c>
+      <c r="C129">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129">
+        <v>6.1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>2.1</v>
+      </c>
+      <c r="C130">
+        <v>5.6</v>
+      </c>
+      <c r="D130">
+        <v>2.8</v>
+      </c>
+      <c r="E130">
+        <v>6.4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>1.6</v>
+      </c>
+      <c r="C131">
+        <v>5.8</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>7.2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>1.9</v>
+      </c>
+      <c r="C132">
+        <v>6.1</v>
+      </c>
+      <c r="D132">
+        <v>2.8</v>
+      </c>
+      <c r="E132">
+        <v>7.4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>6.4</v>
+      </c>
+      <c r="D133">
+        <v>3.8</v>
+      </c>
+      <c r="E133">
+        <v>7.9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C134">
+        <v>5.6</v>
+      </c>
+      <c r="D134">
+        <v>2.8</v>
+      </c>
+      <c r="E134">
+        <v>6.4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <v>1.5</v>
+      </c>
+      <c r="C135">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D135">
+        <v>2.8</v>
+      </c>
+      <c r="E135">
+        <v>6.3</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <v>1.4</v>
+      </c>
+      <c r="C136">
+        <v>5.6</v>
+      </c>
+      <c r="D136">
+        <v>2.6</v>
+      </c>
+      <c r="E136">
+        <v>6.1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C137">
+        <v>6.1</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>7.7</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <v>2.4</v>
+      </c>
+      <c r="C138">
+        <v>5.6</v>
+      </c>
+      <c r="D138">
+        <v>3.4</v>
+      </c>
+      <c r="E138">
+        <v>6.3</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>1.8</v>
+      </c>
+      <c r="C139">
+        <v>5.5</v>
+      </c>
+      <c r="D139">
+        <v>3.1</v>
+      </c>
+      <c r="E139">
+        <v>6.4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>1.8</v>
+      </c>
+      <c r="C140">
+        <v>4.8</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>2.1</v>
+      </c>
+      <c r="C141">
+        <v>5.4</v>
+      </c>
+      <c r="D141">
+        <v>3.1</v>
+      </c>
+      <c r="E141">
+        <v>6.9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <v>2.4</v>
+      </c>
+      <c r="C142">
+        <v>5.6</v>
+      </c>
+      <c r="D142">
+        <v>3.1</v>
+      </c>
+      <c r="E142">
+        <v>6.7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C143">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D143">
+        <v>3.1</v>
+      </c>
+      <c r="E143">
+        <v>6.9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>1.9</v>
+      </c>
+      <c r="C144">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D144">
+        <v>2.7</v>
+      </c>
+      <c r="E144">
+        <v>5.8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C145">
+        <v>5.9</v>
+      </c>
+      <c r="D145">
+        <v>3.2</v>
+      </c>
+      <c r="E145">
+        <v>6.8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>3</v>
+      </c>
+      <c r="B146">
+        <v>2.5</v>
+      </c>
+      <c r="C146">
+        <v>5.7</v>
+      </c>
+      <c r="D146">
+        <v>3.3</v>
+      </c>
+      <c r="E146">
+        <v>6.7</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C147">
+        <v>5.2</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>6.7</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="B148">
+        <v>1.9</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>2.5</v>
+      </c>
+      <c r="E148">
+        <v>6.3</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>5.2</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>6.5</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C150">
+        <v>5.4</v>
+      </c>
+      <c r="D150">
+        <v>3.4</v>
+      </c>
+      <c r="E150">
+        <v>6.2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>1.8</v>
+      </c>
+      <c r="C151">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>5.9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>